--- a/Semester II/Masterproef/logboek/logboek.xlsx
+++ b/Semester II/Masterproef/logboek/logboek.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EC4AA9-4C8C-48A5-B5B2-23976BC6A215}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAD8F96-826E-4D70-8152-CB397E2AE35C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Week 1</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>literatuur</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +541,12 @@
       <c r="E5" s="7">
         <v>43514</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -636,6 +644,9 @@
       </c>
       <c r="B11" s="7">
         <v>43513</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="7">
@@ -647,6 +658,10 @@
       <c r="C12">
         <f>SUM(C5:C11)</f>
         <v>22</v>
+      </c>
+      <c r="F12">
+        <f>SUM(F5:F11)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Semester II/Masterproef/logboek/logboek.xlsx
+++ b/Semester II/Masterproef/logboek/logboek.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAD8F96-826E-4D70-8152-CB397E2AE35C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBEA7E0-99E6-4FF0-95D8-6D7C1EC026BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Week 1</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>literatuur</t>
+  </si>
+  <si>
+    <t>literatuur +  bespreking literatuur</t>
   </si>
 </sst>
 </file>
@@ -476,7 +479,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +567,12 @@
       <c r="E6" s="7">
         <v>43515</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -661,7 +669,7 @@
       </c>
       <c r="F12">
         <f>SUM(F5:F11)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Semester II/Masterproef/logboek/logboek.xlsx
+++ b/Semester II/Masterproef/logboek/logboek.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72B2509-73A6-48EB-A0BC-C95FC69C7CA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A71B40-1395-49FA-9674-366E2163615F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Week 1</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>literatuur + opstellen voorstel</t>
+  </si>
+  <si>
+    <t>Literatuur + voorstel</t>
+  </si>
+  <si>
+    <t>Literatuur hidden markov model + key frames</t>
   </si>
 </sst>
 </file>
@@ -481,15 +487,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -548,7 +554,7 @@
         <v>43514</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>16</v>
@@ -571,7 +577,7 @@
         <v>43515</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>17</v>
@@ -594,7 +600,7 @@
         <v>43516</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>18</v>
@@ -616,7 +622,12 @@
       <c r="E8" s="7">
         <v>43517</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -634,7 +645,12 @@
       <c r="E9" s="7">
         <v>43518</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -652,7 +668,12 @@
       <c r="E10" s="7">
         <v>43519</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -677,7 +698,7 @@
       </c>
       <c r="F12">
         <f>SUM(F5:F11)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Semester II/Masterproef/logboek/logboek.xlsx
+++ b/Semester II/Masterproef/logboek/logboek.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A71B40-1395-49FA-9674-366E2163615F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31289456-16EA-4742-999B-4AA700328D38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Week 1</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Literatuur hidden markov model + key frames</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Studie HMM + Machine learning + schrijven inleiding</t>
   </si>
 </sst>
 </file>
@@ -487,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,6 +502,7 @@
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -527,9 +534,11 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="H4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -559,6 +568,13 @@
       <c r="G5" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H5" s="7">
+        <v>43521</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -582,6 +598,15 @@
       <c r="G6" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="H6" s="7">
+        <v>43522</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -605,6 +630,13 @@
       <c r="G7" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="H7" s="7">
+        <v>43523</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -628,6 +660,13 @@
       <c r="G8" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="H8" s="7">
+        <v>43524</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -651,6 +690,13 @@
       <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="H9" s="7">
+        <v>43525</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -674,6 +720,13 @@
       <c r="G10" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="H10" s="7">
+        <v>43526</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -685,11 +738,25 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="E11" s="7">
         <v>43520</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="7">
+        <v>43527</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12">
@@ -698,7 +765,11 @@
       </c>
       <c r="F12">
         <f>SUM(F5:F11)</f>
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="I12">
+        <f>SUM(I5:I11)</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Semester II/Masterproef/logboek/logboek.xlsx
+++ b/Semester II/Masterproef/logboek/logboek.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31289456-16EA-4742-999B-4AA700328D38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602FFE10-FAD2-48DF-95B7-F6D0338D3384}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="33">
   <si>
     <t>Week 1</t>
   </si>
@@ -94,6 +94,36 @@
   </si>
   <si>
     <t>Studie HMM + Machine learning + schrijven inleiding</t>
+  </si>
+  <si>
+    <t>--------</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
 </sst>
 </file>
@@ -109,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,8 +158,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -156,17 +192,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -187,10 +212,47 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color auto="1"/>
       </left>
       <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color auto="1"/>
@@ -201,16 +263,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,289 +565,1275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1">
         <v>540</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <f>B1-C12</f>
-        <v>518</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+        <f>B1-C12-C21-C30-C39-G12-G21-G30-G39-K12-K21-K30-K39</f>
+        <v>481</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>43507</v>
       </c>
       <c r="C5">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7">
-        <v>43514</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="7">
-        <v>43521</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>43535</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="4">
+        <v>43557</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <v>43508</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7">
-        <v>43515</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>43536</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="4">
+        <v>43558</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="7">
-        <v>43522</v>
-      </c>
-      <c r="I6">
-        <v>8</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <v>43509</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7">
-        <v>43516</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="7">
-        <v>43523</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4">
+        <v>43537</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="4">
+        <v>43559</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <v>43510</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="7">
-        <v>43517</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>43524</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4">
+        <v>43538</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="4">
+        <v>43560</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="4">
         <v>43511</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="7">
-        <v>43518</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="7">
-        <v>43525</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="4">
+        <v>43539</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="4">
+        <v>43561</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="4">
         <v>43512</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="7">
-        <v>43519</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="7">
-        <v>43526</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="4">
+        <v>43540</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="4">
+        <v>43562</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>43513</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="7">
-        <v>43520</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="7">
-        <v>43527</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C12">
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4">
+        <v>43541</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="4">
+        <v>43563</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5">
         <f>SUM(C5:C11)</f>
         <v>22</v>
       </c>
-      <c r="F12">
-        <f>SUM(F5:F11)</f>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="5">
+        <f>SUM(G5:G11)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="5">
+        <f>SUM(K5:K11)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>43514</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>43542</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="4">
+        <v>43564</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4">
+        <v>43515</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4">
+        <v>43543</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="4">
+        <v>43565</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4">
+        <v>43516</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="4">
+        <v>43544</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="4">
+        <v>43566</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4">
+        <v>43517</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="4">
+        <v>43545</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="4">
+        <v>43567</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4">
+        <v>43518</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="4">
+        <v>43546</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="4">
+        <v>43568</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="4">
+        <v>43519</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="4">
+        <v>43547</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="4">
+        <v>43569</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="4">
+        <v>43520</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="4">
+        <v>43548</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="4">
+        <v>43570</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="5">
+        <f>SUM(C14:C20)</f>
         <v>24</v>
       </c>
-      <c r="I12">
-        <f>SUM(I5:I11)</f>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="5">
+        <f>SUM(G14:G20)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="5">
+        <f>SUM(K14:K20)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4">
+        <v>43521</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="4">
+        <v>43549</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="4">
+        <v>43571</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4">
+        <v>43522</v>
+      </c>
+      <c r="C24">
         <v>8</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="4">
+        <v>43550</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="4">
+        <v>43572</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4">
+        <v>43523</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="4">
+        <v>43551</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="4">
+        <v>43573</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="4">
+        <v>43524</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4">
+        <v>43552</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="4">
+        <v>43574</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="4">
+        <v>43525</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="4">
+        <v>43553</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="4">
+        <v>43575</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="4">
+        <v>43526</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="4">
+        <v>43554</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="4">
+        <v>43576</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="4">
+        <v>43527</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="4">
+        <v>43555</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="4">
+        <v>43577</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="5">
+        <f>SUM(C23:C29)</f>
+        <v>13</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="5">
+        <f>SUM(G23:G29)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="5">
+        <f>SUM(K23:K29)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4">
+        <v>43528</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="4">
+        <v>43556</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="4">
+        <v>43578</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="4">
+        <v>43529</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="4">
+        <v>43557</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="4">
+        <v>43579</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="4">
+        <v>43530</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="4">
+        <v>43558</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" s="4">
+        <v>43580</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="4">
+        <v>43531</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="4">
+        <v>43559</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="4">
+        <v>43581</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="4">
+        <v>43532</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="4">
+        <v>43560</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="4">
+        <v>43582</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="4">
+        <v>43533</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="4">
+        <v>43561</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="4">
+        <v>43583</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="4">
+        <v>43534</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="4">
+        <v>43562</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="4">
+        <v>43584</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="15">
+        <f>SUM(C32:C38)</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="15">
+        <f>SUM(G32:G38)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="16"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="15">
+        <f>SUM(K32:K38)</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Semester II/Masterproef/logboek/logboek.xlsx
+++ b/Semester II/Masterproef/logboek/logboek.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602FFE10-FAD2-48DF-95B7-F6D0338D3384}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8B168A-C1D1-482E-A2EA-F59E55FF9912}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="36">
   <si>
     <t>Week 1</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Literatuur</t>
+  </si>
+  <si>
+    <t>Schrijven + literatuur</t>
+  </si>
+  <si>
+    <t>Afspaak dimitri + schrijven</t>
   </si>
 </sst>
 </file>
@@ -567,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +617,7 @@
       </c>
       <c r="B2">
         <f>B1-C12-C21-C30-C39-G12-G21-G30-G39-K12-K21-K30-K39</f>
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -1380,7 +1389,9 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E25" s="1" t="s">
         <v>4</v>
       </c>
@@ -1412,7 +1423,9 @@
       <c r="C26">
         <v>3</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1442,9 +1455,11 @@
         <v>43525</v>
       </c>
       <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E27" s="1" t="s">
         <v>6</v>
       </c>
@@ -1474,9 +1489,11 @@
         <v>43526</v>
       </c>
       <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E28" s="1" t="s">
         <v>7</v>
       </c>
@@ -1537,7 +1554,7 @@
       </c>
       <c r="C30" s="5">
         <f>SUM(C23:C29)</f>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="1"/>

--- a/Semester II/Masterproef/logboek/logboek.xlsx
+++ b/Semester II/Masterproef/logboek/logboek.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8B168A-C1D1-482E-A2EA-F59E55FF9912}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE322C05-B2EC-488E-8574-6989828DF91E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="37">
   <si>
     <t>Week 1</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Afspaak dimitri + schrijven</t>
+  </si>
+  <si>
+    <t>Totaal</t>
   </si>
 </sst>
 </file>
@@ -577,7 +580,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,11 +616,11 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B2">
-        <f>B1-C12-C21-C30-C39-G12-G21-G30-G39-K12-K21-K30-K39</f>
-        <v>471</v>
+        <f>C12+C21+C30+C39+G12+G21+G30+G39+K12+K21+K30+K39</f>
+        <v>79</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -632,6 +635,13 @@
       <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <f>B1-B2</f>
+        <v>461</v>
+      </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -1323,7 +1333,9 @@
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1525,7 +1537,9 @@
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E29" s="1" t="s">
         <v>8</v>
       </c>
@@ -1604,7 +1618,7 @@
         <v>43528</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="1" t="s">
@@ -1636,7 +1650,7 @@
         <v>43529</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="1" t="s">
@@ -1827,7 +1841,7 @@
       </c>
       <c r="C39" s="15">
         <f>SUM(C32:C38)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="13"/>

--- a/Semester II/Masterproef/logboek/logboek.xlsx
+++ b/Semester II/Masterproef/logboek/logboek.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE322C05-B2EC-488E-8574-6989828DF91E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9438DD41-EDF4-4C17-A3A4-8E13A636EAB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="B2">
         <f>C12+C21+C30+C39+G12+G21+G30+G39+K12+K21+K30+K39</f>
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -640,7 +640,7 @@
       </c>
       <c r="B3">
         <f>B1-B2</f>
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -1682,7 +1682,7 @@
         <v>43530</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="1" t="s">
@@ -1714,7 +1714,7 @@
         <v>43531</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="1" t="s">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="C39" s="15">
         <f>SUM(C32:C38)</f>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="13"/>

--- a/Semester II/Masterproef/logboek/logboek.xlsx
+++ b/Semester II/Masterproef/logboek/logboek.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9438DD41-EDF4-4C17-A3A4-8E13A636EAB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F68E934-602E-43AB-86E8-CCE2C0E04089}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="B2">
         <f>C12+C21+C30+C39+G12+G21+G30+G39+K12+K21+K30+K39</f>
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -640,7 +640,7 @@
       </c>
       <c r="B3">
         <f>B1-B2</f>
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -1746,7 +1746,7 @@
         <v>43532</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="1" t="s">
@@ -1778,7 +1778,7 @@
         <v>43533</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="1" t="s">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="C39" s="15">
         <f>SUM(C32:C38)</f>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="13"/>

--- a/Semester II/Masterproef/logboek/logboek.xlsx
+++ b/Semester II/Masterproef/logboek/logboek.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F68E934-602E-43AB-86E8-CCE2C0E04089}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103C8494-C87A-4041-A467-329F52EB136C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -580,7 +580,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="B2">
         <f>C12+C21+C30+C39+G12+G21+G30+G39+K12+K21+K30+K39</f>
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -640,7 +640,7 @@
       </c>
       <c r="B3">
         <f>B1-B2</f>
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -699,7 +699,7 @@
         <v>43535</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="1" t="s">
@@ -738,7 +738,7 @@
         <v>43536</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="1" t="s">
@@ -968,7 +968,7 @@
       </c>
       <c r="G12" s="5">
         <f>SUM(G5:G11)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="1"/>
@@ -1810,7 +1810,7 @@
         <v>43534</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="1" t="s">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="C39" s="15">
         <f>SUM(C32:C38)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="13"/>

--- a/Semester II/Masterproef/logboek/logboek.xlsx
+++ b/Semester II/Masterproef/logboek/logboek.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103C8494-C87A-4041-A467-329F52EB136C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AD1AD1-F265-42B8-BA03-718B58280528}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="37">
   <si>
     <t>Week 1</t>
   </si>
@@ -580,7 +580,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="B2">
         <f>C12+C21+C30+C39+G12+G21+G30+G39+K12+K21+K30+K39</f>
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -640,7 +640,7 @@
       </c>
       <c r="B3">
         <f>B1-B2</f>
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -777,7 +777,7 @@
         <v>43537</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="1" t="s">
@@ -816,7 +816,7 @@
         <v>43538</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="s">
@@ -855,7 +855,7 @@
         <v>43539</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="1" t="s">
@@ -896,7 +896,9 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I10" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,7 +937,9 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I11" s="1" t="s">
         <v>8</v>
       </c>
@@ -968,7 +972,7 @@
       </c>
       <c r="G12" s="5">
         <f>SUM(G5:G11)</f>
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="1"/>
@@ -1031,7 +1035,7 @@
         <v>43542</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="1" t="s">
@@ -1290,7 +1294,7 @@
       </c>
       <c r="G21" s="5">
         <f>SUM(G14:G20)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="1"/>
@@ -1865,6 +1869,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Semester II/Masterproef/logboek/logboek.xlsx
+++ b/Semester II/Masterproef/logboek/logboek.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AD1AD1-F265-42B8-BA03-718B58280528}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55DCB33-0A0B-4629-811F-0241828D6155}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="44">
   <si>
     <t>Week 1</t>
   </si>
@@ -136,6 +136,27 @@
   </si>
   <si>
     <t>Totaal</t>
+  </si>
+  <si>
+    <t>Afspraak dimitri + schrijven</t>
+  </si>
+  <si>
+    <t>Extractie drie-dimensionale coördinaten</t>
+  </si>
+  <si>
+    <t>Tweede iteratie dataset + proberen classificeren</t>
+  </si>
+  <si>
+    <t>Extractie quaternionen en eerste iteratie dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup kinectomgeving. </t>
+  </si>
+  <si>
+    <t>schrijven</t>
+  </si>
+  <si>
+    <t>Programmeren van verschillende runtimes  + poging to classificatie</t>
   </si>
 </sst>
 </file>
@@ -580,7 +601,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +612,7 @@
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="64.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.85546875" bestFit="1" customWidth="1"/>
@@ -620,7 +641,7 @@
       </c>
       <c r="B2">
         <f>C12+C21+C30+C39+G12+G21+G30+G39+K12+K21+K30+K39</f>
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -640,7 +661,7 @@
       </c>
       <c r="B3">
         <f>B1-B2</f>
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -701,7 +722,9 @@
       <c r="G5">
         <v>8</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>2</v>
       </c>
@@ -779,7 +802,9 @@
       <c r="G7">
         <v>4</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>4</v>
       </c>
@@ -818,7 +843,9 @@
       <c r="G8">
         <v>6</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="I8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1035,9 +1062,11 @@
         <v>43542</v>
       </c>
       <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1074,9 +1103,11 @@
         <v>43543</v>
       </c>
       <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="I15" s="1" t="s">
         <v>3</v>
       </c>
@@ -1115,7 +1146,9 @@
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1294,7 +1327,7 @@
       </c>
       <c r="G21" s="5">
         <f>SUM(G14:G20)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="1"/>
@@ -1752,7 +1785,9 @@
       <c r="C36">
         <v>3</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E36" s="1" t="s">
         <v>6</v>
       </c>
@@ -1784,7 +1819,9 @@
       <c r="C37">
         <v>8</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E37" s="1" t="s">
         <v>7</v>
       </c>
@@ -1816,7 +1853,9 @@
       <c r="C38">
         <v>3</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="E38" s="1" t="s">
         <v>8</v>
       </c>

--- a/Semester II/Masterproef/logboek/logboek.xlsx
+++ b/Semester II/Masterproef/logboek/logboek.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55DCB33-0A0B-4629-811F-0241828D6155}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C240AC-6B79-435E-9D1B-5F67FD3B58E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="48">
   <si>
     <t>Week 1</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>Programmeren van verschillende runtimes  + poging to classificatie</t>
+  </si>
+  <si>
+    <t>Meeting + herhalen literatuur</t>
+  </si>
+  <si>
+    <t>Classificatie gelukt</t>
+  </si>
+  <si>
+    <t>Nieuwe opnames met kleurenbeelden erbij</t>
+  </si>
+  <si>
+    <t>Literatuur + refactoren code</t>
   </si>
 </sst>
 </file>
@@ -600,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +653,7 @@
       </c>
       <c r="B2">
         <f>C12+C21+C30+C39+G12+G21+G30+G39+K12+K21+K30+K39</f>
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -661,7 +673,7 @@
       </c>
       <c r="B3">
         <f>B1-B2</f>
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -1144,7 +1156,7 @@
         <v>43544</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>39</v>
@@ -1185,9 +1197,11 @@
         <v>43545</v>
       </c>
       <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="I17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1226,7 +1240,9 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I18" s="1" t="s">
         <v>6</v>
       </c>
@@ -1265,7 +1281,9 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1299,7 +1317,9 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I20" s="1" t="s">
         <v>8</v>
       </c>
@@ -1327,7 +1347,7 @@
       </c>
       <c r="G21" s="5">
         <f>SUM(G14:G20)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="1"/>
@@ -1380,9 +1400,11 @@
         <v>43549</v>
       </c>
       <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="I23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1414,9 +1436,11 @@
         <v>43550</v>
       </c>
       <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="I24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1472,11 @@
         <v>43551</v>
       </c>
       <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="I25" s="1" t="s">
         <v>4</v>
       </c>
@@ -1614,7 +1640,7 @@
       </c>
       <c r="G30" s="5">
         <f>SUM(G23:G29)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="1"/>

--- a/Semester II/Masterproef/logboek/logboek.xlsx
+++ b/Semester II/Masterproef/logboek/logboek.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55DCB33-0A0B-4629-811F-0241828D6155}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFB4D88-DA01-4B33-9956-07E68973FF8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -601,7 +601,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +641,7 @@
       </c>
       <c r="B2">
         <f>C12+C21+C30+C39+G12+G21+G30+G39+K12+K21+K30+K39</f>
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -661,7 +661,7 @@
       </c>
       <c r="B3">
         <f>B1-B2</f>
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -1144,7 +1144,7 @@
         <v>43544</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>39</v>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="G21" s="5">
         <f>SUM(G14:G20)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="1"/>

--- a/Semester II/Masterproef/logboek/logboek.xlsx
+++ b/Semester II/Masterproef/logboek/logboek.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFB4D88-DA01-4B33-9956-07E68973FF8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C240AC-6B79-435E-9D1B-5F67FD3B58E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="48">
   <si>
     <t>Week 1</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>Programmeren van verschillende runtimes  + poging to classificatie</t>
+  </si>
+  <si>
+    <t>Meeting + herhalen literatuur</t>
+  </si>
+  <si>
+    <t>Classificatie gelukt</t>
+  </si>
+  <si>
+    <t>Nieuwe opnames met kleurenbeelden erbij</t>
+  </si>
+  <si>
+    <t>Literatuur + refactoren code</t>
   </si>
 </sst>
 </file>
@@ -600,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +653,7 @@
       </c>
       <c r="B2">
         <f>C12+C21+C30+C39+G12+G21+G30+G39+K12+K21+K30+K39</f>
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -661,7 +673,7 @@
       </c>
       <c r="B3">
         <f>B1-B2</f>
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -1144,7 +1156,7 @@
         <v>43544</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>39</v>
@@ -1185,9 +1197,11 @@
         <v>43545</v>
       </c>
       <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="I17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1226,7 +1240,9 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I18" s="1" t="s">
         <v>6</v>
       </c>
@@ -1265,7 +1281,9 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1299,7 +1317,9 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I20" s="1" t="s">
         <v>8</v>
       </c>
@@ -1327,7 +1347,7 @@
       </c>
       <c r="G21" s="5">
         <f>SUM(G14:G20)</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="1"/>
@@ -1380,9 +1400,11 @@
         <v>43549</v>
       </c>
       <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="I23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1414,9 +1436,11 @@
         <v>43550</v>
       </c>
       <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="I24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1472,11 @@
         <v>43551</v>
       </c>
       <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="I25" s="1" t="s">
         <v>4</v>
       </c>
@@ -1614,7 +1640,7 @@
       </c>
       <c r="G30" s="5">
         <f>SUM(G23:G29)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="1"/>

--- a/Semester II/Masterproef/logboek/logboek.xlsx
+++ b/Semester II/Masterproef/logboek/logboek.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1951249F-3842-4E22-BD1F-360AEA7AF237}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1A1C70-F310-4880-8CDA-DA52244EA40F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="51">
   <si>
     <t>Week 1</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>Zorgen dat kleurenbeelden ook opgenomen worden</t>
+  </si>
+  <si>
+    <t>labelen klassen + normalisatie coördinaten + voorbereiden presentatie</t>
+  </si>
+  <si>
+    <t>Schrijven</t>
   </si>
 </sst>
 </file>
@@ -616,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +634,7 @@
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="69.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.85546875" bestFit="1" customWidth="1"/>
@@ -657,7 +663,7 @@
       </c>
       <c r="B2">
         <f>C12+C21+C30+C39+G12+G21+G30+G39+K12+K21+K30+K39</f>
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -677,7 +683,7 @@
       </c>
       <c r="B3">
         <f>B1-B2</f>
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -1586,7 +1592,9 @@
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I28" s="1" t="s">
         <v>7</v>
       </c>
@@ -1618,9 +1626,11 @@
         <v>43555</v>
       </c>
       <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="I29" s="1" t="s">
         <v>8</v>
       </c>
@@ -1648,7 +1658,7 @@
       </c>
       <c r="G30" s="5">
         <f>SUM(G23:G29)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="1"/>
@@ -1699,9 +1709,11 @@
         <v>43556</v>
       </c>
       <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="I32" s="1" t="s">
         <v>2</v>
       </c>
@@ -1927,7 +1939,7 @@
       </c>
       <c r="G39" s="15">
         <f>SUM(G32:G38)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H39" s="16"/>
       <c r="I39" s="13"/>

--- a/Semester II/Masterproef/logboek/logboek.xlsx
+++ b/Semester II/Masterproef/logboek/logboek.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1A1C70-F310-4880-8CDA-DA52244EA40F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C89A9BD-6040-445D-9C06-48EB60A4FB4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="54">
   <si>
     <t>Week 1</t>
   </si>
@@ -178,6 +178,15 @@
   </si>
   <si>
     <t>Schrijven</t>
+  </si>
+  <si>
+    <t>Presentatie voorbereiden</t>
+  </si>
+  <si>
+    <t>Normalisatie coördinaten + meeting Dimitri, Sanne</t>
+  </si>
+  <si>
+    <t>Verschillende classificaties uitproberen</t>
   </si>
 </sst>
 </file>
@@ -623,7 +632,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +672,7 @@
       </c>
       <c r="B2">
         <f>C12+C21+C30+C39+G12+G21+G30+G39+K12+K21+K30+K39</f>
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -683,7 +692,7 @@
       </c>
       <c r="B3">
         <f>B1-B2</f>
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -751,12 +760,14 @@
         <v>2</v>
       </c>
       <c r="J5" s="4">
-        <v>43557</v>
+        <v>43563</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="10"/>
@@ -790,12 +801,14 @@
         <v>3</v>
       </c>
       <c r="J6" s="4">
-        <v>43558</v>
+        <v>43564</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="10"/>
@@ -831,12 +844,14 @@
         <v>4</v>
       </c>
       <c r="J7" s="4">
-        <v>43559</v>
+        <v>43565</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="O7" s="10"/>
@@ -872,12 +887,14 @@
         <v>5</v>
       </c>
       <c r="J8" s="4">
-        <v>43560</v>
+        <v>43566</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="10"/>
@@ -911,12 +928,14 @@
         <v>6</v>
       </c>
       <c r="J9" s="4">
-        <v>43561</v>
+        <v>43567</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
       <c r="O9" s="10"/>
@@ -952,10 +971,10 @@
         <v>7</v>
       </c>
       <c r="J10" s="4">
-        <v>43562</v>
+        <v>43568</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="12"/>
@@ -993,10 +1012,10 @@
         <v>8</v>
       </c>
       <c r="J11" s="4">
-        <v>43563</v>
+        <v>43569</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="12"/>
@@ -1030,7 +1049,7 @@
       </c>
       <c r="K12" s="5">
         <f>SUM(K5:K11)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="12"/>
@@ -1093,12 +1112,14 @@
         <v>2</v>
       </c>
       <c r="J14" s="4">
-        <v>43564</v>
+        <v>43570</v>
       </c>
       <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="10"/>
@@ -1134,12 +1155,14 @@
         <v>3</v>
       </c>
       <c r="J15" s="4">
-        <v>43565</v>
+        <v>43571</v>
       </c>
       <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
@@ -1175,7 +1198,7 @@
         <v>4</v>
       </c>
       <c r="J16" s="4">
-        <v>43566</v>
+        <v>43572</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1216,7 +1239,7 @@
         <v>5</v>
       </c>
       <c r="J17" s="4">
-        <v>43567</v>
+        <v>43573</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1257,7 +1280,7 @@
         <v>6</v>
       </c>
       <c r="J18" s="4">
-        <v>43568</v>
+        <v>43574</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1298,7 +1321,7 @@
         <v>7</v>
       </c>
       <c r="J19" s="4">
-        <v>43569</v>
+        <v>43575</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1334,7 +1357,7 @@
         <v>8</v>
       </c>
       <c r="J20" s="4">
-        <v>43570</v>
+        <v>43576</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1366,7 +1389,7 @@
       </c>
       <c r="K21" s="5">
         <f>SUM(K14:K20)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L21" s="2"/>
     </row>
@@ -1419,7 +1442,7 @@
         <v>2</v>
       </c>
       <c r="J23" s="4">
-        <v>43571</v>
+        <v>43577</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,7 +1478,7 @@
         <v>3</v>
       </c>
       <c r="J24" s="4">
-        <v>43572</v>
+        <v>43578</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1514,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="4">
-        <v>43573</v>
+        <v>43579</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1527,7 +1550,7 @@
         <v>5</v>
       </c>
       <c r="J26" s="4">
-        <v>43574</v>
+        <v>43580</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1563,7 +1586,7 @@
         <v>6</v>
       </c>
       <c r="J27" s="4">
-        <v>43575</v>
+        <v>43581</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1599,7 +1622,7 @@
         <v>7</v>
       </c>
       <c r="J28" s="4">
-        <v>43576</v>
+        <v>43582</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1635,7 +1658,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="4">
-        <v>43577</v>
+        <v>43583</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1718,7 +1741,7 @@
         <v>2</v>
       </c>
       <c r="J32" s="4">
-        <v>43578</v>
+        <v>43584</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -1743,14 +1766,16 @@
         <v>43557</v>
       </c>
       <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J33" s="4">
-        <v>43579</v>
+        <v>43585</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -1775,14 +1800,16 @@
         <v>43558</v>
       </c>
       <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="I34" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J34" s="4">
-        <v>43580</v>
+        <v>43586</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -1809,12 +1836,14 @@
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J35" s="4">
-        <v>43581</v>
+        <v>43587</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -1843,12 +1872,14 @@
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J36" s="4">
-        <v>43582</v>
+        <v>43588</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -1877,12 +1908,14 @@
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J37" s="4">
-        <v>43583</v>
+        <v>43589</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -1911,12 +1944,14 @@
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J38" s="4">
-        <v>43584</v>
+        <v>43590</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -1939,7 +1974,7 @@
       </c>
       <c r="G39" s="15">
         <f>SUM(G32:G38)</f>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H39" s="16"/>
       <c r="I39" s="13"/>

--- a/Semester II/Masterproef/logboek/logboek.xlsx
+++ b/Semester II/Masterproef/logboek/logboek.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C89A9BD-6040-445D-9C06-48EB60A4FB4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC43DAD0-B1EC-4751-862F-00ECB4E661CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="57">
   <si>
     <t>Week 1</t>
   </si>
@@ -187,6 +187,15 @@
   </si>
   <si>
     <t>Verschillende classificaties uitproberen</t>
+  </si>
+  <si>
+    <t>presentatie</t>
+  </si>
+  <si>
+    <t>Schrijven + nieuwe dataset</t>
+  </si>
+  <si>
+    <t>Meeting + implementatie segmentatie</t>
   </si>
 </sst>
 </file>
@@ -631,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="E15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,7 +681,7 @@
       </c>
       <c r="B2">
         <f>C12+C21+C30+C39+G12+G21+G30+G39+K12+K21+K30+K39</f>
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -692,7 +701,7 @@
       </c>
       <c r="B3">
         <f>B1-B2</f>
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -1203,7 +1212,9 @@
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
@@ -1244,7 +1255,9 @@
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
@@ -1285,7 +1298,9 @@
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18" s="2"/>
+      <c r="L18" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
@@ -1326,7 +1341,9 @@
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="L19" s="2"/>
+      <c r="L19" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1362,7 +1379,9 @@
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
@@ -1447,7 +1466,9 @@
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="L23" s="2"/>
+      <c r="L23" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -1481,9 +1502,11 @@
         <v>43578</v>
       </c>
       <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1517,9 +1540,11 @@
         <v>43579</v>
       </c>
       <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1553,9 +1578,11 @@
         <v>43580</v>
       </c>
       <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1690,7 +1717,7 @@
       </c>
       <c r="K30" s="5">
         <f>SUM(K23:K29)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L30" s="2"/>
     </row>
@@ -1834,10 +1861,10 @@
         <v>43559</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>5</v>
@@ -1974,7 +2001,7 @@
       </c>
       <c r="G39" s="15">
         <f>SUM(G32:G38)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H39" s="16"/>
       <c r="I39" s="13"/>

--- a/Semester II/Masterproef/logboek/logboek.xlsx
+++ b/Semester II/Masterproef/logboek/logboek.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC43DAD0-B1EC-4751-862F-00ECB4E661CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2637A38B-3417-4E27-A15E-42C13AB003B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="60">
   <si>
     <t>Week 1</t>
   </si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t>Meeting + implementatie segmentatie</t>
+  </si>
+  <si>
+    <t>Schaal invariantie + grafieken + voorbereiden presentatie</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Simple Buffer classificatie</t>
   </si>
 </sst>
 </file>
@@ -640,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +665,7 @@
     <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -681,7 +690,7 @@
       </c>
       <c r="B2">
         <f>C12+C21+C30+C39+G12+G21+G30+G39+K12+K21+K30+K39</f>
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -701,7 +710,7 @@
       </c>
       <c r="B3">
         <f>B1-B2</f>
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -1616,9 +1625,11 @@
         <v>43581</v>
       </c>
       <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -1652,9 +1663,11 @@
         <v>43582</v>
       </c>
       <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -1717,7 +1730,7 @@
       </c>
       <c r="K30" s="5">
         <f>SUM(K23:K29)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L30" s="2"/>
     </row>
@@ -1771,9 +1784,11 @@
         <v>43584</v>
       </c>
       <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1807,7 +1822,9 @@
       <c r="K33">
         <v>0</v>
       </c>
-      <c r="L33" s="2"/>
+      <c r="L33" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -1839,9 +1856,11 @@
         <v>43586</v>
       </c>
       <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -2010,7 +2029,7 @@
       </c>
       <c r="K39" s="15">
         <f>SUM(K32:K38)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L39" s="16"/>
     </row>

--- a/Semester II/Masterproef/logboek/logboek.xlsx
+++ b/Semester II/Masterproef/logboek/logboek.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2637A38B-3417-4E27-A15E-42C13AB003B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FF1D32-3158-413F-B7F5-758796B438A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="63">
   <si>
     <t>Week 1</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>Simple Buffer classificatie</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
   </si>
 </sst>
 </file>
@@ -649,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,6 +675,9 @@
     <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="56" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -743,10 +755,12 @@
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="9"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="9"/>
       <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -786,10 +800,18 @@
       <c r="L5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="M5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="4">
+        <v>43591</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="Q5" s="10"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -827,10 +849,18 @@
       <c r="L6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
+      <c r="M6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="4">
+        <v>43592</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="Q6" s="10"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -870,10 +900,18 @@
       <c r="L7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="M7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="4">
+        <v>43593</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="Q7" s="10"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -913,10 +951,18 @@
       <c r="L8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
+      <c r="M8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="4">
+        <v>43594</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="Q8" s="10"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -954,10 +1000,18 @@
       <c r="L9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="M9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="4">
+        <v>43595</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="Q9" s="10"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -995,10 +1049,16 @@
         <v>2</v>
       </c>
       <c r="L10" s="2"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="M10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="4">
+        <v>43596</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2"/>
       <c r="Q10" s="10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1036,10 +1096,16 @@
         <v>2</v>
       </c>
       <c r="L11" s="2"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
+      <c r="M11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="4">
+        <v>43597</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2"/>
       <c r="Q11" s="10"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1070,10 +1136,15 @@
         <v>4</v>
       </c>
       <c r="L12" s="2"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="5">
+        <f>SUM(O5:O11)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="2"/>
       <c r="Q12" s="10"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1095,10 +1166,12 @@
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13" s="7"/>
+      <c r="P13" s="9"/>
       <c r="Q13" s="10"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1138,10 +1211,16 @@
       <c r="L14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
+      <c r="M14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="4">
+        <v>43598</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2"/>
       <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1181,10 +1260,16 @@
       <c r="L15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
+      <c r="M15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="4">
+        <v>43599</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2"/>
       <c r="Q15" s="10"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1224,10 +1309,16 @@
       <c r="L16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
+      <c r="M16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="4">
+        <v>43600</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2"/>
       <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1267,10 +1358,16 @@
       <c r="L17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
+      <c r="M17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="4">
+        <v>43601</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2"/>
       <c r="Q17" s="10"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -1310,10 +1407,16 @@
       <c r="L18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
+      <c r="M18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="4">
+        <v>43602</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2"/>
       <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1353,6 +1456,16 @@
       <c r="L19" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="M19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" s="4">
+        <v>43603</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1390,6 +1503,15 @@
       </c>
       <c r="L20" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="4">
+        <v>43604</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1420,6 +1542,15 @@
         <v>7</v>
       </c>
       <c r="L21" s="2"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" s="5">
+        <f>SUM(O14:O20)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
@@ -1440,6 +1571,12 @@
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="9"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O22" s="7"/>
+      <c r="P22" s="9"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1478,6 +1615,17 @@
       <c r="L23" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="M23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="4">
+        <f>N20+1</f>
+        <v>43605</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -1516,6 +1664,17 @@
       <c r="L24" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="M24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="4">
+        <f>N23+1</f>
+        <v>43606</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1554,6 +1713,17 @@
       <c r="L25" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="M25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" ref="N25:N29" si="0">N24+1</f>
+        <v>43607</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1592,6 +1762,17 @@
       <c r="L26" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="M26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="0"/>
+        <v>43608</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1630,6 +1811,17 @@
       <c r="L27" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="M27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N27" s="4">
+        <f t="shared" si="0"/>
+        <v>43609</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -1668,6 +1860,17 @@
       <c r="L28" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="M28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="0"/>
+        <v>43610</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -1704,6 +1907,17 @@
         <v>0</v>
       </c>
       <c r="L29" s="2"/>
+      <c r="M29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="4">
+        <f t="shared" si="0"/>
+        <v>43611</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
@@ -1733,6 +1947,15 @@
         <v>17</v>
       </c>
       <c r="L30" s="2"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O30" s="5">
+        <f>SUM(O23:O29)</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="2"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
@@ -1753,6 +1976,12 @@
       </c>
       <c r="K31" s="7"/>
       <c r="L31" s="9"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O31" s="7"/>
+      <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1789,8 +2018,19 @@
       <c r="L32" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="4">
+        <f>N29+1</f>
+        <v>43612</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -1825,8 +2065,19 @@
       <c r="L33" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="4">
+        <f>N32+1</f>
+        <v>43613</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -1861,8 +2112,19 @@
       <c r="L34" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N34" s="4">
+        <f t="shared" ref="N34:N38" si="1">N33+1</f>
+        <v>43614</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -1895,8 +2157,19 @@
         <v>0</v>
       </c>
       <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="4">
+        <f t="shared" si="1"/>
+        <v>43615</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -1931,8 +2204,19 @@
         <v>0</v>
       </c>
       <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36" s="4">
+        <f t="shared" si="1"/>
+        <v>43616</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -1967,8 +2251,19 @@
         <v>0</v>
       </c>
       <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N37" s="4">
+        <f t="shared" si="1"/>
+        <v>43617</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -2003,8 +2298,19 @@
         <v>0</v>
       </c>
       <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N38" s="4">
+        <f t="shared" si="1"/>
+        <v>43618</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
       <c r="B39" s="14" t="s">
         <v>23</v>
@@ -2032,6 +2338,15 @@
         <v>14</v>
       </c>
       <c r="L39" s="16"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O39" s="15">
+        <f>SUM(O32:O38)</f>
+        <v>0</v>
+      </c>
+      <c r="P39" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Semester II/Masterproef/logboek/logboek.xlsx
+++ b/Semester II/Masterproef/logboek/logboek.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FF1D32-3158-413F-B7F5-758796B438A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F7D4EF-484D-46A4-A276-D42C64146E03}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="88">
   <si>
     <t>Week 1</t>
   </si>
@@ -214,6 +215,83 @@
   </si>
   <si>
     <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
+  </si>
+  <si>
+    <t>Week 18</t>
+  </si>
+  <si>
+    <t>Week 19</t>
+  </si>
+  <si>
+    <t>Week 20</t>
+  </si>
+  <si>
+    <t>Week 21</t>
+  </si>
+  <si>
+    <t>Week 22</t>
+  </si>
+  <si>
+    <t>Week 23</t>
+  </si>
+  <si>
+    <t>Week 24</t>
+  </si>
+  <si>
+    <t>Week 25</t>
+  </si>
+  <si>
+    <t>Week 26</t>
+  </si>
+  <si>
+    <t>Week 27</t>
+  </si>
+  <si>
+    <t>Week 28</t>
+  </si>
+  <si>
+    <t>Week 29</t>
+  </si>
+  <si>
+    <t>Week 30</t>
+  </si>
+  <si>
+    <t>Week 31</t>
+  </si>
+  <si>
+    <t>Week 32</t>
+  </si>
+  <si>
+    <t>Nieuwe opnames + rotatie-invariantie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerealiseerd: Invariantie compleet
+Volgende week: het 'innovatieve' aspect van de masterproef </t>
+  </si>
+  <si>
+    <t>Implementatie idee om kinetische energie te gebruiken voor de segmentatie</t>
+  </si>
+  <si>
+    <t>Gerealiseerd: basisidee 'energie van een frame'
+Volgende week: nieuwe opnames maken waarbij acties overgaan in elkaar + fast fourier transformatie bestuderen</t>
+  </si>
+  <si>
+    <t>Gewichten toekennen aan joints voor energie</t>
+  </si>
+  <si>
+    <t>grafieken opmaken</t>
+  </si>
+  <si>
+    <t>meeting + studie fouriertransformatie</t>
+  </si>
+  <si>
+    <t>fouriertransformatie uittesten op huidige dataset</t>
   </si>
 </sst>
 </file>
@@ -353,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -376,6 +454,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="M9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,10 +758,12 @@
     <col min="12" max="12" width="56" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="56" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="74.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -696,7 +779,7 @@
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -715,8 +798,9 @@
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -735,8 +819,9 @@
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>0</v>
@@ -761,9 +846,32 @@
       </c>
       <c r="O4" s="7"/>
       <c r="P4" s="9"/>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" s="7"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="W4" s="7"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -812,9 +920,56 @@
       <c r="P5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="4">
+        <v>43619</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="4">
+        <v>43647</v>
+      </c>
+      <c r="W5">
+        <v>6</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>43675</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>43703</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -861,9 +1016,58 @@
       <c r="P6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="4">
+        <f t="shared" ref="R6:R11" si="0">R5+1</f>
+        <v>43620</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6" s="4">
+        <f t="shared" ref="V6:V11" si="1">V5+1</f>
+        <v>43648</v>
+      </c>
+      <c r="W6">
+        <v>4</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="4">
+        <f t="shared" ref="Z6:Z11" si="2">Z5+1</f>
+        <v>43676</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="4">
+        <f t="shared" ref="AD6:AD11" si="3">AD5+1</f>
+        <v>43704</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -912,9 +1116,58 @@
       <c r="P7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="10"/>
+      <c r="Q7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="4">
+        <f t="shared" si="0"/>
+        <v>43621</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V7" s="4">
+        <f t="shared" si="1"/>
+        <v>43649</v>
+      </c>
+      <c r="W7">
+        <v>6</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="4">
+        <f t="shared" si="2"/>
+        <v>43677</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD7" s="4">
+        <f t="shared" si="3"/>
+        <v>43705</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -963,9 +1216,58 @@
       <c r="P8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="10"/>
+      <c r="Q8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" s="4">
+        <f t="shared" si="0"/>
+        <v>43622</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V8" s="4">
+        <f t="shared" si="1"/>
+        <v>43650</v>
+      </c>
+      <c r="W8">
+        <v>4</v>
+      </c>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="4">
+        <f t="shared" si="2"/>
+        <v>43678</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD8" s="4">
+        <f t="shared" si="3"/>
+        <v>43706</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1012,9 +1314,58 @@
       <c r="P9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q9" s="10"/>
+      <c r="Q9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="4">
+        <f t="shared" si="0"/>
+        <v>43623</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="shared" si="1"/>
+        <v>43651</v>
+      </c>
+      <c r="W9">
+        <v>5</v>
+      </c>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z9" s="4">
+        <f t="shared" si="2"/>
+        <v>43679</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD9" s="4">
+        <f t="shared" si="3"/>
+        <v>43707</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,9 +1410,52 @@
         <v>0</v>
       </c>
       <c r="P10" s="2"/>
-      <c r="Q10" s="10"/>
+      <c r="Q10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10" s="4">
+        <f t="shared" si="0"/>
+        <v>43624</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2"/>
+      <c r="U10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V10" s="4">
+        <f t="shared" si="1"/>
+        <v>43652</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="4">
+        <f t="shared" si="2"/>
+        <v>43680</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD10" s="4">
+        <f t="shared" si="3"/>
+        <v>43708</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1106,9 +1500,52 @@
         <v>0</v>
       </c>
       <c r="P11" s="2"/>
-      <c r="Q11" s="10"/>
+      <c r="Q11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R11" s="4">
+        <f t="shared" si="0"/>
+        <v>43625</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2"/>
+      <c r="U11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="4">
+        <f t="shared" si="1"/>
+        <v>43653</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="4">
+        <f t="shared" si="2"/>
+        <v>43681</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD11" s="4">
+        <f t="shared" si="3"/>
+        <v>43709</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2"/>
     </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
         <v>23</v>
@@ -1145,9 +1582,46 @@
         <v>0</v>
       </c>
       <c r="P12" s="2"/>
-      <c r="Q12" s="10"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" s="5">
+        <f>SUM(S5:S11)</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="2"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="5">
+        <f>SUM(W5:W11)</f>
+        <v>25</v>
+      </c>
+      <c r="X12" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA12" s="5">
+        <f>SUM(AA5:AA11)</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE12" s="5">
+        <f>SUM(AE5:AE11)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="2"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
         <v>1</v>
@@ -1172,9 +1646,32 @@
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="9"/>
-      <c r="Q13" s="10"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="S13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="W13" s="7"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="9"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1221,9 +1718,54 @@
         <v>0</v>
       </c>
       <c r="P14" s="2"/>
-      <c r="Q14" s="10"/>
+      <c r="Q14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="4">
+        <f>R11+1</f>
+        <v>43626</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2"/>
+      <c r="U14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" s="4">
+        <f>V11+1</f>
+        <v>43654</v>
+      </c>
+      <c r="W14">
+        <v>6</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="4">
+        <f>Z11+1</f>
+        <v>43682</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD14" s="4">
+        <f>AD11+1</f>
+        <v>43710</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="2"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -1270,9 +1812,54 @@
         <v>0</v>
       </c>
       <c r="P15" s="2"/>
-      <c r="Q15" s="10"/>
+      <c r="Q15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="4">
+        <f t="shared" ref="R15:R20" si="4">R14+1</f>
+        <v>43627</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2"/>
+      <c r="U15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" s="4">
+        <f t="shared" ref="V15:V20" si="5">V14+1</f>
+        <v>43655</v>
+      </c>
+      <c r="W15">
+        <v>6</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z15" s="4">
+        <f t="shared" ref="Z15:Z20" si="6">Z14+1</f>
+        <v>43683</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD15" s="4">
+        <f t="shared" ref="AD15:AD20" si="7">AD14+1</f>
+        <v>43711</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1319,9 +1906,54 @@
         <v>0</v>
       </c>
       <c r="P16" s="2"/>
-      <c r="Q16" s="10"/>
+      <c r="Q16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" s="4">
+        <f t="shared" si="4"/>
+        <v>43628</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2"/>
+      <c r="U16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V16" s="4">
+        <f t="shared" si="5"/>
+        <v>43656</v>
+      </c>
+      <c r="W16">
+        <v>8</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z16" s="4">
+        <f t="shared" si="6"/>
+        <v>43684</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD16" s="4">
+        <f t="shared" si="7"/>
+        <v>43712</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="2"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1368,9 +2000,52 @@
         <v>0</v>
       </c>
       <c r="P17" s="2"/>
-      <c r="Q17" s="10"/>
+      <c r="Q17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="4">
+        <f t="shared" si="4"/>
+        <v>43629</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2"/>
+      <c r="U17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" si="5"/>
+        <v>43657</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="4">
+        <f t="shared" si="6"/>
+        <v>43685</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD17" s="4">
+        <f t="shared" si="7"/>
+        <v>43713</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="2"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -1417,9 +2092,52 @@
         <v>0</v>
       </c>
       <c r="P18" s="2"/>
-      <c r="Q18" s="10"/>
+      <c r="Q18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R18" s="4">
+        <f t="shared" si="4"/>
+        <v>43630</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18" s="2"/>
+      <c r="U18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V18" s="4">
+        <f t="shared" si="5"/>
+        <v>43658</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z18" s="4">
+        <f t="shared" si="6"/>
+        <v>43686</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD18" s="4">
+        <f t="shared" si="7"/>
+        <v>43714</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="2"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1466,8 +2184,52 @@
         <v>0</v>
       </c>
       <c r="P19" s="2"/>
+      <c r="Q19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R19" s="4">
+        <f t="shared" si="4"/>
+        <v>43631</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19" s="2"/>
+      <c r="U19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" si="5"/>
+        <v>43659</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z19" s="4">
+        <f t="shared" si="6"/>
+        <v>43687</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD19" s="4">
+        <f t="shared" si="7"/>
+        <v>43715</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="2"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -1513,8 +2275,53 @@
       <c r="O20">
         <v>0</v>
       </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R20" s="4">
+        <f t="shared" si="4"/>
+        <v>43632</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20" s="2"/>
+      <c r="U20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V20" s="4">
+        <f t="shared" si="5"/>
+        <v>43660</v>
+      </c>
+      <c r="W20">
+        <v>7</v>
+      </c>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z20" s="4">
+        <f t="shared" si="6"/>
+        <v>43688</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD20" s="4">
+        <f t="shared" si="7"/>
+        <v>43716</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="2"/>
     </row>
-    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="6" t="s">
         <v>23</v>
@@ -1551,8 +2358,46 @@
         <v>0</v>
       </c>
       <c r="P21" s="2"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S21" s="5">
+        <f>SUM(S14:S20)</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="2"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W21" s="5">
+        <f>SUM(W14:W20)</f>
+        <v>27</v>
+      </c>
+      <c r="X21" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA21" s="5">
+        <f>SUM(AA14:AA20)</f>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE21" s="5">
+        <f>SUM(AE14:AE20)</f>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="2"/>
     </row>
-    <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="8" t="s">
         <v>21</v>
@@ -1577,8 +2422,32 @@
       </c>
       <c r="O22" s="7"/>
       <c r="P22" s="9"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S22" s="7"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="W22" s="7"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="9"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1626,8 +2495,54 @@
         <v>0</v>
       </c>
       <c r="P23" s="2"/>
+      <c r="Q23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R23" s="4">
+        <f>R20+1</f>
+        <v>43633</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23" s="2"/>
+      <c r="U23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V23" s="4">
+        <f>V20+1</f>
+        <v>43661</v>
+      </c>
+      <c r="W23">
+        <v>4</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="4">
+        <f>Z20+1</f>
+        <v>43689</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD23" s="4">
+        <f>AD20+1</f>
+        <v>43717</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="2"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1675,8 +2590,54 @@
         <v>0</v>
       </c>
       <c r="P24" s="2"/>
+      <c r="Q24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="4">
+        <f>R23+1</f>
+        <v>43634</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24" s="2"/>
+      <c r="U24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V24" s="4">
+        <f>V23+1</f>
+        <v>43662</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z24" s="4">
+        <f>Z23+1</f>
+        <v>43690</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD24" s="4">
+        <f>AD23+1</f>
+        <v>43718</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="2"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -1717,15 +2678,59 @@
         <v>4</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" ref="N25:N29" si="0">N24+1</f>
+        <f t="shared" ref="N25:N29" si="8">N24+1</f>
         <v>43607</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25" s="2"/>
+      <c r="Q25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R25" s="4">
+        <f t="shared" ref="R25:R29" si="9">R24+1</f>
+        <v>43635</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25" s="2"/>
+      <c r="U25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V25" s="4">
+        <f t="shared" ref="V25:V29" si="10">V24+1</f>
+        <v>43663</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z25" s="4">
+        <f t="shared" ref="Z25:Z29" si="11">Z24+1</f>
+        <v>43691</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD25" s="4">
+        <f t="shared" ref="AD25:AD29" si="12">AD24+1</f>
+        <v>43719</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="2"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1766,15 +2771,59 @@
         <v>5</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>43608</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26" s="2"/>
+      <c r="Q26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="4">
+        <f t="shared" si="9"/>
+        <v>43636</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26" s="2"/>
+      <c r="U26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="4">
+        <f t="shared" si="10"/>
+        <v>43664</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="4">
+        <f t="shared" si="11"/>
+        <v>43692</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD26" s="4">
+        <f t="shared" si="12"/>
+        <v>43720</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="2"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -1815,15 +2864,59 @@
         <v>6</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>43609</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
       <c r="P27" s="2"/>
+      <c r="Q27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R27" s="4">
+        <f t="shared" si="9"/>
+        <v>43637</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27" s="2"/>
+      <c r="U27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V27" s="4">
+        <f t="shared" si="10"/>
+        <v>43665</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z27" s="4">
+        <f t="shared" si="11"/>
+        <v>43693</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD27" s="4">
+        <f t="shared" si="12"/>
+        <v>43721</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="2"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -1864,15 +2957,59 @@
         <v>7</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>43610</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28" s="2"/>
+      <c r="Q28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R28" s="4">
+        <f t="shared" si="9"/>
+        <v>43638</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28" s="2"/>
+      <c r="U28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V28" s="4">
+        <f t="shared" si="10"/>
+        <v>43666</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z28" s="4">
+        <f t="shared" si="11"/>
+        <v>43694</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD28" s="4">
+        <f t="shared" si="12"/>
+        <v>43722</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="2"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -1911,15 +3048,59 @@
         <v>8</v>
       </c>
       <c r="N29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>43611</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29" s="2"/>
+      <c r="Q29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="4">
+        <f t="shared" si="9"/>
+        <v>43639</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29" s="2"/>
+      <c r="U29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="4">
+        <f t="shared" si="10"/>
+        <v>43667</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="4">
+        <f t="shared" si="11"/>
+        <v>43695</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD29" s="4">
+        <f t="shared" si="12"/>
+        <v>43723</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="2"/>
     </row>
-    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="6" t="s">
         <v>23</v>
@@ -1956,8 +3137,44 @@
         <v>0</v>
       </c>
       <c r="P30" s="2"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S30" s="5">
+        <f>SUM(S23:S29)</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="2"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W30" s="5">
+        <f>SUM(W23:W29)</f>
+        <v>4</v>
+      </c>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA30" s="5">
+        <f>SUM(AA23:AA29)</f>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE30" s="5">
+        <f>SUM(AE23:AE29)</f>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="2"/>
     </row>
-    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="8" t="s">
         <v>24</v>
@@ -1978,12 +3195,36 @@
       <c r="L31" s="9"/>
       <c r="M31" s="7"/>
       <c r="N31" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O31" s="7"/>
       <c r="P31" s="9"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="S31" s="7"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="W31" s="7"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="9"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -2025,12 +3266,53 @@
         <f>N29+1</f>
         <v>43612</v>
       </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
       <c r="P32" s="2"/>
+      <c r="Q32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R32" s="4">
+        <f>R29+1</f>
+        <v>43640</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32" s="2"/>
+      <c r="U32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V32" s="4">
+        <f>V29+1</f>
+        <v>43668</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z32" s="4">
+        <f>Z29+1</f>
+        <v>43696</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD32" s="4">
+        <f>AD29+1</f>
+        <v>43724</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="2"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -2072,12 +3354,53 @@
         <f>N32+1</f>
         <v>43613</v>
       </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
       <c r="P33" s="2"/>
+      <c r="Q33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="4">
+        <f>R32+1</f>
+        <v>43641</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33" s="2"/>
+      <c r="U33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V33" s="4">
+        <f>V32+1</f>
+        <v>43669</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z33" s="4">
+        <f>Z32+1</f>
+        <v>43697</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD33" s="4">
+        <f>AD32+1</f>
+        <v>43725</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="2"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -2116,15 +3439,56 @@
         <v>4</v>
       </c>
       <c r="N34" s="4">
-        <f t="shared" ref="N34:N38" si="1">N33+1</f>
+        <f t="shared" ref="N34:N38" si="13">N33+1</f>
         <v>43614</v>
       </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
       <c r="P34" s="2"/>
+      <c r="Q34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R34" s="4">
+        <f t="shared" ref="R34:R38" si="14">R33+1</f>
+        <v>43642</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34" s="2"/>
+      <c r="U34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V34" s="4">
+        <f t="shared" ref="V34:V38" si="15">V33+1</f>
+        <v>43670</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z34" s="4">
+        <f t="shared" ref="Z34:Z38" si="16">Z33+1</f>
+        <v>43698</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD34" s="4">
+        <f t="shared" ref="AD34:AD38" si="17">AD33+1</f>
+        <v>43726</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="2"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -2161,15 +3525,56 @@
         <v>5</v>
       </c>
       <c r="N35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>43615</v>
       </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
       <c r="P35" s="2"/>
+      <c r="Q35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="4">
+        <f t="shared" si="14"/>
+        <v>43643</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35" s="2"/>
+      <c r="U35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="4">
+        <f t="shared" si="15"/>
+        <v>43671</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z35" s="4">
+        <f t="shared" si="16"/>
+        <v>43699</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD35" s="4">
+        <f t="shared" si="17"/>
+        <v>43727</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="2"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -2208,15 +3613,56 @@
         <v>6</v>
       </c>
       <c r="N36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>43616</v>
       </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
       <c r="P36" s="2"/>
+      <c r="Q36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R36" s="4">
+        <f t="shared" si="14"/>
+        <v>43644</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36" s="2"/>
+      <c r="U36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V36" s="4">
+        <f t="shared" si="15"/>
+        <v>43672</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z36" s="4">
+        <f t="shared" si="16"/>
+        <v>43700</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD36" s="4">
+        <f t="shared" si="17"/>
+        <v>43728</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="2"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -2255,15 +3701,56 @@
         <v>7</v>
       </c>
       <c r="N37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>43617</v>
       </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
       <c r="P37" s="2"/>
+      <c r="Q37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R37" s="4">
+        <f t="shared" si="14"/>
+        <v>43645</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37" s="2"/>
+      <c r="U37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V37" s="4">
+        <f t="shared" si="15"/>
+        <v>43673</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z37" s="4">
+        <f t="shared" si="16"/>
+        <v>43701</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD37" s="4">
+        <f t="shared" si="17"/>
+        <v>43729</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="2"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -2302,15 +3789,59 @@
         <v>8</v>
       </c>
       <c r="N38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>43618</v>
       </c>
       <c r="O38">
         <v>0</v>
       </c>
       <c r="P38" s="2"/>
+      <c r="Q38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R38" s="4">
+        <f t="shared" si="14"/>
+        <v>43646</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38" s="2"/>
+      <c r="U38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V38" s="4">
+        <f t="shared" si="15"/>
+        <v>43674</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z38" s="4">
+        <f t="shared" si="16"/>
+        <v>43702</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD38" s="4">
+        <f t="shared" si="17"/>
+        <v>43730</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="2"/>
     </row>
-    <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
       <c r="B39" s="14" t="s">
         <v>23</v>
@@ -2347,6 +3878,42 @@
         <v>0</v>
       </c>
       <c r="P39" s="16"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="S39" s="15">
+        <f>SUM(S32:S38)</f>
+        <v>0</v>
+      </c>
+      <c r="T39" s="16"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="W39" s="15">
+        <f>SUM(W32:W38)</f>
+        <v>0</v>
+      </c>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA39" s="15">
+        <f>SUM(AA32:AA38)</f>
+        <v>0</v>
+      </c>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="13"/>
+      <c r="AD39" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE39" s="15">
+        <f>SUM(AE32:AE38)</f>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
